--- a/new_manual_beginning_distances_jul_27.xlsx
+++ b/new_manual_beginning_distances_jul_27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\Roberts Side Projects\May 22 output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{91453139-67A5-406A-81B2-5A75C2F654D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{33DE5FEE-C680-450A-837E-72A7AEA03B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
